--- a/data/download_SH516160.xlsx
+++ b/data/download_SH516160.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F979"/>
+  <dimension ref="A1:F983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23937,6 +23937,102 @@
         <v>1.949</v>
       </c>
     </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>20250225</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C980" t="n">
+        <v>1.969</v>
+      </c>
+      <c r="D980" t="n">
+        <v>1.962</v>
+      </c>
+      <c r="E980" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F980" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>20250226</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C981" t="n">
+        <v>2.011</v>
+      </c>
+      <c r="D981" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E981" t="n">
+        <v>2.012</v>
+      </c>
+      <c r="F981" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>20250227</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C982" t="n">
+        <v>2.011</v>
+      </c>
+      <c r="D982" t="n">
+        <v>2.012</v>
+      </c>
+      <c r="E982" t="n">
+        <v>2.018</v>
+      </c>
+      <c r="F982" t="n">
+        <v>1.989</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C983" t="n">
+        <v>1.994</v>
+      </c>
+      <c r="D983" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="E983" t="n">
+        <v>2.026</v>
+      </c>
+      <c r="F983" t="n">
+        <v>1.992</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH516160.xlsx
+++ b/data/download_SH516160.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F983"/>
+  <dimension ref="A1:F984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>1.994</v>
+        <v>1.97</v>
       </c>
       <c r="D983" t="n">
         <v>2.005</v>
@@ -24030,7 +24030,31 @@
         <v>2.026</v>
       </c>
       <c r="F983" t="n">
-        <v>1.992</v>
+        <v>1.969</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>20250303</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C984" t="n">
+        <v>2.043</v>
+      </c>
+      <c r="D984" t="n">
+        <v>1.979</v>
+      </c>
+      <c r="E984" t="n">
+        <v>2.044</v>
+      </c>
+      <c r="F984" t="n">
+        <v>1.976</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH516160.xlsx
+++ b/data/download_SH516160.xlsx
@@ -24045,13 +24045,13 @@
         </is>
       </c>
       <c r="C984" t="n">
-        <v>2.043</v>
+        <v>2.02</v>
       </c>
       <c r="D984" t="n">
         <v>1.979</v>
       </c>
       <c r="E984" t="n">
-        <v>2.044</v>
+        <v>2.052</v>
       </c>
       <c r="F984" t="n">
         <v>1.976</v>

--- a/data/download_SH516160.xlsx
+++ b/data/download_SH516160.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F984"/>
+  <dimension ref="A1:F1020"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24057,6 +24057,870 @@
         <v>1.976</v>
       </c>
     </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>20250304</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C985" t="n">
+        <v>1.993</v>
+      </c>
+      <c r="D985" t="n">
+        <v>2.011</v>
+      </c>
+      <c r="E985" t="n">
+        <v>2.011</v>
+      </c>
+      <c r="F985" t="n">
+        <v>1.971</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>20250305</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C986" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D986" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E986" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F986" t="n">
+        <v>1.955</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>20250306</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C987" t="n">
+        <v>1.998</v>
+      </c>
+      <c r="D987" t="n">
+        <v>1.973</v>
+      </c>
+      <c r="E987" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="F987" t="n">
+        <v>1.964</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C988" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D988" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="E988" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="F988" t="n">
+        <v>1.971</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>20250310</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C989" t="n">
+        <v>1.982</v>
+      </c>
+      <c r="D989" t="n">
+        <v>1.981</v>
+      </c>
+      <c r="E989" t="n">
+        <v>1.996</v>
+      </c>
+      <c r="F989" t="n">
+        <v>1.965</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>20250311</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C990" t="n">
+        <v>1.985</v>
+      </c>
+      <c r="D990" t="n">
+        <v>1.969</v>
+      </c>
+      <c r="E990" t="n">
+        <v>1.986</v>
+      </c>
+      <c r="F990" t="n">
+        <v>1.962</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>20250312</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C991" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D991" t="n">
+        <v>1.986</v>
+      </c>
+      <c r="E991" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="F991" t="n">
+        <v>1.974</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>20250313</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C992" t="n">
+        <v>1.966</v>
+      </c>
+      <c r="D992" t="n">
+        <v>1.978</v>
+      </c>
+      <c r="E992" t="n">
+        <v>1.992</v>
+      </c>
+      <c r="F992" t="n">
+        <v>1.958</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C993" t="n">
+        <v>2.002</v>
+      </c>
+      <c r="D993" t="n">
+        <v>1.973</v>
+      </c>
+      <c r="E993" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="F993" t="n">
+        <v>1.963</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>20250317</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C994" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="D994" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="E994" t="n">
+        <v>2.021</v>
+      </c>
+      <c r="F994" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>20250318</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C995" t="n">
+        <v>2.009</v>
+      </c>
+      <c r="D995" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="E995" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F995" t="n">
+        <v>2.002</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>20250319</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C996" t="n">
+        <v>2.007</v>
+      </c>
+      <c r="D996" t="n">
+        <v>2.007</v>
+      </c>
+      <c r="E996" t="n">
+        <v>2.022</v>
+      </c>
+      <c r="F996" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>20250320</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C997" t="n">
+        <v>1.991</v>
+      </c>
+      <c r="D997" t="n">
+        <v>2.003</v>
+      </c>
+      <c r="E997" t="n">
+        <v>2.007</v>
+      </c>
+      <c r="F997" t="n">
+        <v>1.988</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>20250321</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C998" t="n">
+        <v>1.961</v>
+      </c>
+      <c r="D998" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E998" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="F998" t="n">
+        <v>1.956</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>20250324</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C999" t="n">
+        <v>1.953</v>
+      </c>
+      <c r="D999" t="n">
+        <v>1.961</v>
+      </c>
+      <c r="E999" t="n">
+        <v>1.969</v>
+      </c>
+      <c r="F999" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>20250325</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1000" t="n">
+        <v>1.969</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>1.978</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>1.948</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>20250326</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1001" t="n">
+        <v>1.977</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>1.968</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>1.994</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>1.967</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>20250327</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1002" t="n">
+        <v>1.959</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>1.975</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>1.977</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>1.947</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>20250328</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1003" t="n">
+        <v>1.942</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>1.971</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1004" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>1.887</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>20250401</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1005" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>1.892</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>20250402</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1006" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>1.896</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>20250403</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1007" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>1.872</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>20250407</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1008" t="n">
+        <v>1.687</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>1.828</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>1.687</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>20250408</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1009" t="n">
+        <v>1.684</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>1.658</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>20250409</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1010" t="n">
+        <v>1.687</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>1.665</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>1.617</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>20250410</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1011" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>1.714</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>20250411</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1012" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>1.702</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>20250414</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1013" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>1.741</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>20250415</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1014" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>1.737</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>20250416</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1015" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>1.706</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>20250417</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1016" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>1.721</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>20250418</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1017" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>1.716</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>20250421</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1018" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>1.717</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>20250422</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1019" t="n">
+        <v>1.742</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>1.739</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>20250423</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1020" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>1.743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH516160.xlsx
+++ b/data/download_SH516160.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1020"/>
+  <dimension ref="A1:F1022"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24921,6 +24921,54 @@
         <v>1.743</v>
       </c>
     </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>20250424</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1021" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>1.745</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1022" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>1.744</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH516160.xlsx
+++ b/data/download_SH516160.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1022"/>
+  <dimension ref="A1:F1027"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24969,6 +24969,126 @@
         <v>1.744</v>
       </c>
     </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>20250428</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1023" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>20250429</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1024" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>1.741</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>20250430</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1025" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>1.739</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>20250506</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1026" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>1.751</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>20250507</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>SH516160</t>
+        </is>
+      </c>
+      <c r="C1027" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>1.805</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>1.772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
